--- a/Microcontroller pinout diagrams.xlsx
+++ b/Microcontroller pinout diagrams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2ac6356bae23d48/Documents/^NCODE/SmartCAR/GrabCrab_smartcar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{5A3D812F-B50B-485F-A7E0-E98D5B77DB96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{346E84D0-0D50-44A8-8CD0-D52AA50F29A6}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{5A3D812F-B50B-485F-A7E0-E98D5B77DB96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2ADAAE15-B36D-4F46-9181-6BA9795AF891}"/>
   <bookViews>
-    <workbookView xWindow="16515" yWindow="2880" windowWidth="20055" windowHeight="16365" xr2:uid="{07093BA4-AFBC-41B7-9BBC-A69CB304ADA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{07093BA4-AFBC-41B7-9BBC-A69CB304ADA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>TX1</t>
   </si>
@@ -144,27 +144,6 @@
     <t>inRB_2</t>
   </si>
   <si>
-    <t>potPin</t>
-  </si>
-  <si>
-    <t>test potmeter</t>
-  </si>
-  <si>
-    <t>in1</t>
-  </si>
-  <si>
-    <t>in2</t>
-  </si>
-  <si>
-    <t>in3</t>
-  </si>
-  <si>
-    <t>in4</t>
-  </si>
-  <si>
-    <t>Comms</t>
-  </si>
-  <si>
     <t>Battery in</t>
   </si>
   <si>
@@ -183,20 +162,116 @@
     <t>enRB</t>
   </si>
   <si>
-    <t>STOPLED</t>
-  </si>
-  <si>
     <t>Arduino 1: MotorControl</t>
   </si>
   <si>
     <t>Arduino 2: Servo &amp; Sensor</t>
+  </si>
+  <si>
+    <t>RPi</t>
+  </si>
+  <si>
+    <t>IN ONLY</t>
+  </si>
+  <si>
+    <t>SDA(2)</t>
+  </si>
+  <si>
+    <t>SCL(3)</t>
+  </si>
+  <si>
+    <t>GPCLK0(4)</t>
+  </si>
+  <si>
+    <t>GPIO 17</t>
+  </si>
+  <si>
+    <t>GPIO 27</t>
+  </si>
+  <si>
+    <t>GPIO 22</t>
+  </si>
+  <si>
+    <t>3v3 V+</t>
+  </si>
+  <si>
+    <t>MOSI(10)</t>
+  </si>
+  <si>
+    <t>MISO(9)</t>
+  </si>
+  <si>
+    <t>SCLK(11)</t>
+  </si>
+  <si>
+    <t>ID_SD(0)</t>
+  </si>
+  <si>
+    <t>GPIO 5</t>
+  </si>
+  <si>
+    <t>GPIO 6</t>
+  </si>
+  <si>
+    <t>PWM1(13)</t>
+  </si>
+  <si>
+    <t>PCM_FS(19)</t>
+  </si>
+  <si>
+    <t>GPIO 26</t>
+  </si>
+  <si>
+    <t>5V V+</t>
+  </si>
+  <si>
+    <t>TXD(14)</t>
+  </si>
+  <si>
+    <t>RXD(15)</t>
+  </si>
+  <si>
+    <t>PCM_CLK(18)</t>
+  </si>
+  <si>
+    <t>GPIO 23</t>
+  </si>
+  <si>
+    <t>GPIO 24</t>
+  </si>
+  <si>
+    <t>GPIO 25</t>
+  </si>
+  <si>
+    <t>CE0(8)</t>
+  </si>
+  <si>
+    <t>CE1(7)</t>
+  </si>
+  <si>
+    <t>ID_SC(1)</t>
+  </si>
+  <si>
+    <t>PWM0(12)</t>
+  </si>
+  <si>
+    <t>GPIO 16</t>
+  </si>
+  <si>
+    <t>PCM_DIN(20)</t>
+  </si>
+  <si>
+    <t>PCM_DOUT(21)</t>
+  </si>
+  <si>
+    <t>RPi : AI, SLAM &amp; controller</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,8 +300,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +323,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -268,18 +355,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Beregning" xfId="2" builtinId="22"/>
+    <cellStyle name="Dårlig" xfId="3" builtinId="27"/>
     <cellStyle name="Inndata" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -593,24 +683,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE36539-01AF-4AFE-888C-B5DD988BEFDF}">
-  <dimension ref="B6:K21"/>
+  <dimension ref="B6:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="15" max="16" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
@@ -618,9 +718,11 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>0</v>
       </c>
@@ -628,9 +730,19 @@
         <v>15</v>
       </c>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
@@ -638,9 +750,11 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="1"/>
       <c r="I8" s="2" t="s">
         <v>1</v>
       </c>
@@ -648,8 +762,16 @@
         <v>3</v>
       </c>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N8" s="1"/>
+      <c r="O8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -666,8 +788,16 @@
         <v>2</v>
       </c>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N9" s="1"/>
+      <c r="O9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -684,8 +814,16 @@
         <v>16</v>
       </c>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N10" s="1"/>
+      <c r="O10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
@@ -695,7 +833,9 @@
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="2" t="s">
         <v>4</v>
@@ -704,8 +844,16 @@
         <v>17</v>
       </c>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N11" s="1"/>
+      <c r="O11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
@@ -715,7 +863,9 @@
       <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="2" t="s">
         <v>5</v>
@@ -724,8 +874,16 @@
         <v>18</v>
       </c>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N12" s="1"/>
+      <c r="O12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
@@ -735,9 +893,7 @@
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="2" t="s">
         <v>6</v>
@@ -746,10 +902,18 @@
         <v>19</v>
       </c>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N13" s="1"/>
+      <c r="O13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
@@ -757,12 +921,7 @@
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="2" t="s">
         <v>7</v>
@@ -771,10 +930,18 @@
         <v>20</v>
       </c>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N14" s="1"/>
+      <c r="O14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
@@ -782,12 +949,7 @@
       <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="2" t="s">
         <v>8</v>
@@ -796,8 +958,16 @@
         <v>21</v>
       </c>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N15" s="1"/>
+      <c r="O15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
@@ -807,12 +977,7 @@
       <c r="D16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
+      <c r="E16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="2" t="s">
         <v>9</v>
@@ -821,8 +986,16 @@
         <v>22</v>
       </c>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N16" s="1"/>
+      <c r="O16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
@@ -832,12 +1005,7 @@
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" t="s">
-        <v>42</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="2" t="s">
         <v>10</v>
@@ -846,8 +1014,16 @@
         <v>23</v>
       </c>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N17" s="1"/>
+      <c r="O17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
@@ -857,12 +1033,7 @@
       <c r="D18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" t="s">
-        <v>37</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="2" t="s">
         <v>11</v>
@@ -871,10 +1042,18 @@
         <v>24</v>
       </c>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N18" s="1"/>
+      <c r="O18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -891,10 +1070,18 @@
         <v>25</v>
       </c>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N19" s="1"/>
+      <c r="O19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
@@ -911,8 +1098,16 @@
         <v>26</v>
       </c>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N20" s="1"/>
+      <c r="O20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
@@ -933,6 +1128,64 @@
         <v>27</v>
       </c>
       <c r="K21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N22" s="1"/>
+      <c r="O22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N23" s="1"/>
+      <c r="O23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N24" s="1"/>
+      <c r="O24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N25" s="1"/>
+      <c r="O25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N26" s="1"/>
+      <c r="O26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Microcontroller pinout diagrams.xlsx
+++ b/Microcontroller pinout diagrams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2ac6356bae23d48/Documents/^NCODE/SmartCAR/GrabCrab_smartcar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{5A3D812F-B50B-485F-A7E0-E98D5B77DB96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2ADAAE15-B36D-4F46-9181-6BA9795AF891}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{5A3D812F-B50B-485F-A7E0-E98D5B77DB96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{76D7ABDD-86A3-4D9E-9023-A47BF418A7A9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{07093BA4-AFBC-41B7-9BBC-A69CB304ADA0}"/>
   </bookViews>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE36539-01AF-4AFE-888C-B5DD988BEFDF}">
   <dimension ref="B6:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
